--- a/results/feedstock_lcia.xlsx
+++ b/results/feedstock_lcia.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="630" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="666" uniqueCount="34">
   <si>
     <t>Impact Assessment Method</t>
   </si>
@@ -114,7 +114,7 @@
     <t>Heat-HTC</t>
   </si>
   <si>
-    <t>'Carbon dioxide, non-fossil, resource correction' (kg, None, None)</t>
+    <t>'Carbon dioxide, non-fossil, resource correction' (kilogram, None, ('natural resource', 'in air'))</t>
   </si>
   <si>
     <t>CO2 - HTC</t>
@@ -127,6 +127,12 @@
   </si>
   <si>
     <t>Electricity - Post-Processing</t>
+  </si>
+  <si>
+    <t>'transport, freight, lorry, all sizes, EURO6 to generic market for transport, freight, lorry, unspecified' (ton kilometer, RoW, None)</t>
+  </si>
+  <si>
+    <t>Transportation</t>
   </si>
 </sst>
 </file>
@@ -458,13 +464,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -483,8 +489,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -503,13 +512,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -534,8 +546,11 @@
       <c r="H4">
         <v>2.73E-08</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -560,8 +575,11 @@
       <c r="H5">
         <v>4.24E-07</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -586,8 +604,11 @@
       <c r="H6">
         <v>2.22E-09</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -612,8 +633,11 @@
       <c r="H7">
         <v>1.33E-06</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -638,8 +662,11 @@
       <c r="H8">
         <v>7.06E-07</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -664,8 +691,11 @@
       <c r="H9">
         <v>2.25E-10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -690,8 +720,11 @@
       <c r="H10">
         <v>3.12E-15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -716,8 +749,11 @@
       <c r="H11">
         <v>1.54E-13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -742,8 +778,11 @@
       <c r="H12">
         <v>1.51E-14</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -768,8 +807,11 @@
       <c r="H13">
         <v>3.05E-10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -793,6 +835,9 @@
       </c>
       <c r="H14">
         <v>3.51E-08</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>
@@ -802,13 +847,13 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -827,8 +872,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -847,13 +895,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -878,8 +929,11 @@
       <c r="H4">
         <v>3.68E-07</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -904,8 +958,11 @@
       <c r="H5">
         <v>5.7E-06</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -930,8 +987,11 @@
       <c r="H6">
         <v>2.98E-08</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -956,8 +1016,11 @@
       <c r="H7">
         <v>1.78E-05</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -982,8 +1045,11 @@
       <c r="H8">
         <v>9.490000000000001E-06</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1008,8 +1074,11 @@
       <c r="H9">
         <v>3.02E-09</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1034,8 +1103,11 @@
       <c r="H10">
         <v>4.2E-14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1060,8 +1132,11 @@
       <c r="H11">
         <v>2.08E-12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1086,8 +1161,11 @@
       <c r="H12">
         <v>2.03E-13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1112,8 +1190,11 @@
       <c r="H13">
         <v>4.1E-09</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1137,6 +1218,9 @@
       </c>
       <c r="H14">
         <v>4.72E-07</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>
@@ -1146,13 +1230,13 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -1171,8 +1255,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -1191,13 +1278,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1222,8 +1312,11 @@
       <c r="H4">
         <v>3.39E-07</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1248,8 +1341,11 @@
       <c r="H5">
         <v>5.25E-06</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1274,8 +1370,11 @@
       <c r="H6">
         <v>2.74E-08</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1300,8 +1399,11 @@
       <c r="H7">
         <v>1.64E-05</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1326,8 +1428,11 @@
       <c r="H8">
         <v>8.739999999999999E-06</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1352,8 +1457,11 @@
       <c r="H9">
         <v>2.78E-09</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1378,8 +1486,11 @@
       <c r="H10">
         <v>3.87E-14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1404,8 +1515,11 @@
       <c r="H11">
         <v>1.91E-12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1430,8 +1544,11 @@
       <c r="H12">
         <v>1.87E-13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1456,8 +1573,11 @@
       <c r="H13">
         <v>3.78E-09</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1481,6 +1601,9 @@
       </c>
       <c r="H14">
         <v>4.35E-07</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>
@@ -1490,13 +1613,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -1515,8 +1638,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -1535,13 +1661,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1566,8 +1695,11 @@
       <c r="H4">
         <v>3.56E-07</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1592,8 +1724,11 @@
       <c r="H5">
         <v>5.53E-06</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1618,8 +1753,11 @@
       <c r="H6">
         <v>2.89E-08</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1644,8 +1782,11 @@
       <c r="H7">
         <v>1.73E-05</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1670,8 +1811,11 @@
       <c r="H8">
         <v>9.2E-06</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1696,8 +1840,11 @@
       <c r="H9">
         <v>2.93E-09</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1722,8 +1869,11 @@
       <c r="H10">
         <v>4.07E-14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1748,8 +1898,11 @@
       <c r="H11">
         <v>2.01E-12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1774,8 +1927,11 @@
       <c r="H12">
         <v>1.97E-13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -1800,8 +1956,11 @@
       <c r="H13">
         <v>3.98E-09</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -1825,6 +1984,9 @@
       </c>
       <c r="H14">
         <v>4.57E-07</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>
@@ -1834,13 +1996,13 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -1859,8 +2021,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -1879,13 +2044,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -1910,8 +2078,11 @@
       <c r="H4">
         <v>5.14E-07</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -1936,8 +2107,11 @@
       <c r="H5">
         <v>7.97E-06</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -1962,8 +2136,11 @@
       <c r="H6">
         <v>4.16E-08</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1988,8 +2165,11 @@
       <c r="H7">
         <v>2.49E-05</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2014,8 +2194,11 @@
       <c r="H8">
         <v>1.33E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2040,8 +2223,11 @@
       <c r="H9">
         <v>4.22E-09</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2066,8 +2252,11 @@
       <c r="H10">
         <v>5.87E-14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2092,8 +2281,11 @@
       <c r="H11">
         <v>2.9E-12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2118,8 +2310,11 @@
       <c r="H12">
         <v>2.84E-13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2144,8 +2339,11 @@
       <c r="H13">
         <v>5.74E-09</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2169,6 +2367,9 @@
       </c>
       <c r="H14">
         <v>6.6E-07</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>
@@ -2178,13 +2379,13 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -2203,8 +2404,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -2223,13 +2427,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2254,8 +2461,11 @@
       <c r="H4">
         <v>5.8E-07</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2280,8 +2490,11 @@
       <c r="H5">
         <v>9E-06</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2306,8 +2519,11 @@
       <c r="H6">
         <v>4.7E-08</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2332,8 +2548,11 @@
       <c r="H7">
         <v>2.81E-05</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2358,8 +2577,11 @@
       <c r="H8">
         <v>1.5E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2384,8 +2606,11 @@
       <c r="H9">
         <v>4.76E-09</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2410,8 +2635,11 @@
       <c r="H10">
         <v>6.630000000000001E-14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2436,8 +2664,11 @@
       <c r="H11">
         <v>3.28E-12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2462,8 +2693,11 @@
       <c r="H12">
         <v>3.2E-13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2488,8 +2722,11 @@
       <c r="H13">
         <v>6.48E-09</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2513,6 +2750,9 @@
       </c>
       <c r="H14">
         <v>7.45E-07</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>
@@ -2522,13 +2762,13 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -2547,8 +2787,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -2567,13 +2810,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2598,8 +2844,11 @@
       <c r="H4">
         <v>6.08E-07</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2624,8 +2873,11 @@
       <c r="H5">
         <v>9.429999999999999E-06</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2650,8 +2902,11 @@
       <c r="H6">
         <v>4.92E-08</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -2676,8 +2931,11 @@
       <c r="H7">
         <v>2.95E-05</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -2702,8 +2960,11 @@
       <c r="H8">
         <v>1.57E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -2728,8 +2989,11 @@
       <c r="H9">
         <v>4.99E-09</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -2754,8 +3018,11 @@
       <c r="H10">
         <v>6.94E-14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -2780,8 +3047,11 @@
       <c r="H11">
         <v>3.43E-12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -2806,8 +3076,11 @@
       <c r="H12">
         <v>3.35E-13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -2832,8 +3105,11 @@
       <c r="H13">
         <v>6.78E-09</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -2857,6 +3133,9 @@
       </c>
       <c r="H14">
         <v>7.8E-07</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>
@@ -2866,13 +3145,13 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -2891,8 +3170,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -2911,13 +3193,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -2942,8 +3227,11 @@
       <c r="H4">
         <v>6.28E-07</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -2968,8 +3256,11 @@
       <c r="H5">
         <v>9.74E-06</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -2994,8 +3285,11 @@
       <c r="H6">
         <v>5.09E-08</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3020,8 +3314,11 @@
       <c r="H7">
         <v>3.05E-05</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3046,8 +3343,11 @@
       <c r="H8">
         <v>1.62E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3072,8 +3372,11 @@
       <c r="H9">
         <v>5.16E-09</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3098,8 +3401,11 @@
       <c r="H10">
         <v>7.179999999999999E-14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3124,8 +3430,11 @@
       <c r="H11">
         <v>3.55E-12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3150,8 +3459,11 @@
       <c r="H12">
         <v>3.47E-13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3176,8 +3488,11 @@
       <c r="H13">
         <v>7.01E-09</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3201,6 +3516,9 @@
       </c>
       <c r="H14">
         <v>8.06E-07</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>
@@ -3210,13 +3528,13 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -3235,8 +3553,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -3255,13 +3576,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3286,8 +3610,11 @@
       <c r="H4">
         <v>6E-07</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3312,8 +3639,11 @@
       <c r="H5">
         <v>9.310000000000001E-06</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3338,8 +3668,11 @@
       <c r="H6">
         <v>4.86E-08</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3364,8 +3697,11 @@
       <c r="H7">
         <v>2.91E-05</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3390,8 +3726,11 @@
       <c r="H8">
         <v>1.55E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3416,8 +3755,11 @@
       <c r="H9">
         <v>4.93E-09</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3442,8 +3784,11 @@
       <c r="H10">
         <v>6.860000000000001E-14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3468,8 +3813,11 @@
       <c r="H11">
         <v>3.39E-12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3494,8 +3842,11 @@
       <c r="H12">
         <v>3.31E-13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3520,8 +3871,11 @@
       <c r="H13">
         <v>6.7E-09</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3545,6 +3899,9 @@
       </c>
       <c r="H14">
         <v>7.7E-07</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>
@@ -3554,13 +3911,13 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -3579,8 +3936,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -3599,13 +3959,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3630,8 +3993,11 @@
       <c r="H4">
         <v>6.4E-07</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -3656,8 +4022,11 @@
       <c r="H5">
         <v>9.93E-06</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -3682,8 +4051,11 @@
       <c r="H6">
         <v>5.18E-08</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -3708,8 +4080,11 @@
       <c r="H7">
         <v>3.1E-05</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -3734,8 +4109,11 @@
       <c r="H8">
         <v>1.65E-05</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -3760,8 +4138,11 @@
       <c r="H9">
         <v>5.25E-09</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -3786,8 +4167,11 @@
       <c r="H10">
         <v>7.31E-14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -3812,8 +4196,11 @@
       <c r="H11">
         <v>3.62E-12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -3838,8 +4225,11 @@
       <c r="H12">
         <v>3.53E-13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -3864,8 +4254,11 @@
       <c r="H13">
         <v>7.14E-09</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -3889,6 +4282,9 @@
       </c>
       <c r="H14">
         <v>8.21E-07</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>
@@ -3898,13 +4294,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -3923,8 +4319,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -3943,13 +4342,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -3974,8 +4376,11 @@
       <c r="H4">
         <v>4.16E-08</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4000,8 +4405,11 @@
       <c r="H5">
         <v>6.45E-07</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4026,8 +4434,11 @@
       <c r="H6">
         <v>3.37E-09</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4052,8 +4463,11 @@
       <c r="H7">
         <v>2.02E-06</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4078,8 +4492,11 @@
       <c r="H8">
         <v>1.07E-06</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4104,8 +4521,11 @@
       <c r="H9">
         <v>3.41E-10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4130,8 +4550,11 @@
       <c r="H10">
         <v>4.75E-15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4156,8 +4579,11 @@
       <c r="H11">
         <v>2.35E-13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4182,8 +4608,11 @@
       <c r="H12">
         <v>2.29E-14</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4208,8 +4637,11 @@
       <c r="H13">
         <v>4.64E-10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4233,6 +4665,9 @@
       </c>
       <c r="H14">
         <v>5.34E-08</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>
@@ -4242,13 +4677,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -4267,8 +4702,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -4287,13 +4725,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4318,8 +4759,11 @@
       <c r="H4">
         <v>4.07E-08</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4344,8 +4788,11 @@
       <c r="H5">
         <v>6.32E-07</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4370,8 +4817,11 @@
       <c r="H6">
         <v>3.3E-09</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4396,8 +4846,11 @@
       <c r="H7">
         <v>1.97E-06</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4422,8 +4875,11 @@
       <c r="H8">
         <v>1.05E-06</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4448,8 +4904,11 @@
       <c r="H9">
         <v>3.34E-10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4474,8 +4933,11 @@
       <c r="H10">
         <v>4.65E-15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4500,8 +4962,11 @@
       <c r="H11">
         <v>2.3E-13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4526,8 +4991,11 @@
       <c r="H12">
         <v>2.25E-14</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4552,8 +5020,11 @@
       <c r="H13">
         <v>4.54E-10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4577,6 +5048,9 @@
       </c>
       <c r="H14">
         <v>5.22E-08</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>
@@ -4586,13 +5060,13 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -4611,8 +5085,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -4631,13 +5108,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -4662,8 +5142,11 @@
       <c r="H4">
         <v>3.81E-08</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -4688,8 +5171,11 @@
       <c r="H5">
         <v>5.91E-07</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -4714,8 +5200,11 @@
       <c r="H6">
         <v>3.09E-09</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -4740,8 +5229,11 @@
       <c r="H7">
         <v>1.85E-06</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -4766,8 +5258,11 @@
       <c r="H8">
         <v>9.829999999999999E-07</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -4792,8 +5287,11 @@
       <c r="H9">
         <v>3.13E-10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -4818,8 +5316,11 @@
       <c r="H10">
         <v>4.35E-15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -4844,8 +5345,11 @@
       <c r="H11">
         <v>2.15E-13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -4870,8 +5374,11 @@
       <c r="H12">
         <v>2.1E-14</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -4896,8 +5403,11 @@
       <c r="H13">
         <v>4.25E-10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -4921,6 +5431,9 @@
       </c>
       <c r="H14">
         <v>4.89E-08</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>
@@ -4930,13 +5443,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -4955,8 +5468,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -4975,13 +5491,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5006,8 +5525,11 @@
       <c r="H4">
         <v>4.08E-08</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5032,8 +5554,11 @@
       <c r="H5">
         <v>6.32E-07</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5058,8 +5583,11 @@
       <c r="H6">
         <v>3.3E-09</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5084,8 +5612,11 @@
       <c r="H7">
         <v>1.98E-06</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5110,8 +5641,11 @@
       <c r="H8">
         <v>1.05E-06</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5136,8 +5670,11 @@
       <c r="H9">
         <v>3.35E-10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5162,8 +5699,11 @@
       <c r="H10">
         <v>4.66E-15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5188,8 +5728,11 @@
       <c r="H11">
         <v>2.3E-13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5214,8 +5757,11 @@
       <c r="H12">
         <v>2.25E-14</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5240,8 +5786,11 @@
       <c r="H13">
         <v>4.55E-10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5265,6 +5814,9 @@
       </c>
       <c r="H14">
         <v>5.23E-08</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>
@@ -5274,13 +5826,13 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -5299,8 +5851,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -5319,13 +5874,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5350,8 +5908,11 @@
       <c r="H4">
         <v>4.29E-08</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5376,8 +5937,11 @@
       <c r="H5">
         <v>6.65E-07</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5402,8 +5966,11 @@
       <c r="H6">
         <v>3.47E-09</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5428,8 +5995,11 @@
       <c r="H7">
         <v>2.08E-06</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5454,8 +6024,11 @@
       <c r="H8">
         <v>1.11E-06</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5480,8 +6053,11 @@
       <c r="H9">
         <v>3.52E-10</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5506,8 +6082,11 @@
       <c r="H10">
         <v>4.9E-15</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5532,8 +6111,11 @@
       <c r="H11">
         <v>2.42E-13</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5558,8 +6140,11 @@
       <c r="H12">
         <v>2.36E-14</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5584,8 +6169,11 @@
       <c r="H13">
         <v>4.78E-10</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5609,6 +6197,9 @@
       </c>
       <c r="H14">
         <v>5.5E-08</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>
@@ -5618,13 +6209,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -5643,8 +6234,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -5663,13 +6257,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -5694,8 +6291,11 @@
       <c r="H4">
         <v>3.03E-07</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -5720,8 +6320,11 @@
       <c r="H5">
         <v>4.7E-06</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -5746,8 +6349,11 @@
       <c r="H6">
         <v>2.46E-08</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -5772,8 +6378,11 @@
       <c r="H7">
         <v>1.47E-05</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -5798,8 +6407,11 @@
       <c r="H8">
         <v>7.82E-06</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -5824,8 +6436,11 @@
       <c r="H9">
         <v>2.49E-09</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -5850,8 +6465,11 @@
       <c r="H10">
         <v>3.46E-14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -5876,8 +6494,11 @@
       <c r="H11">
         <v>1.71E-12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -5902,8 +6523,11 @@
       <c r="H12">
         <v>1.67E-13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -5928,8 +6552,11 @@
       <c r="H13">
         <v>3.38E-09</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -5953,6 +6580,9 @@
       </c>
       <c r="H14">
         <v>3.89E-07</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>
@@ -5962,13 +6592,13 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -5987,8 +6617,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -6007,13 +6640,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -6038,8 +6674,11 @@
       <c r="H4">
         <v>3.87E-07</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6064,8 +6703,11 @@
       <c r="H5">
         <v>6E-06</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6090,8 +6732,11 @@
       <c r="H6">
         <v>3.14E-08</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -6116,8 +6761,11 @@
       <c r="H7">
         <v>1.88E-05</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -6142,8 +6790,11 @@
       <c r="H8">
         <v>9.989999999999999E-06</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -6168,8 +6819,11 @@
       <c r="H9">
         <v>3.18E-09</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6194,8 +6848,11 @@
       <c r="H10">
         <v>4.42E-14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -6220,8 +6877,11 @@
       <c r="H11">
         <v>2.19E-12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -6246,8 +6906,11 @@
       <c r="H12">
         <v>2.14E-13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6272,8 +6935,11 @@
       <c r="H13">
         <v>4.32E-09</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6297,6 +6963,9 @@
       </c>
       <c r="H14">
         <v>4.97E-07</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>
@@ -6306,13 +6975,13 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="C1" t="s">
         <v>22</v>
       </c>
@@ -6331,8 +7000,11 @@
       <c r="H1" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="C2" t="s">
         <v>23</v>
       </c>
@@ -6351,13 +7023,16 @@
       <c r="H2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="I2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -6382,8 +7057,11 @@
       <c r="H4">
         <v>3.69E-07</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="I4">
+        <v>9.689999999999999E-12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -6408,8 +7086,11 @@
       <c r="H5">
         <v>5.73E-06</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>2.03E-09</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -6434,8 +7115,11 @@
       <c r="H6">
         <v>2.99E-08</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>1.28E-11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -6460,8 +7144,11 @@
       <c r="H7">
         <v>1.79E-05</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>6.14E-09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -6486,8 +7173,11 @@
       <c r="H8">
         <v>9.53E-06</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>1.6E-08</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -6512,8 +7202,11 @@
       <c r="H9">
         <v>3.03E-09</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>1.62E-12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -6538,8 +7231,11 @@
       <c r="H10">
         <v>4.22E-14</v>
       </c>
-    </row>
-    <row r="11" spans="1:8">
+      <c r="I10">
+        <v>1.48E-17</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -6564,8 +7260,11 @@
       <c r="H11">
         <v>2.09E-12</v>
       </c>
-    </row>
-    <row r="12" spans="1:8">
+      <c r="I11">
+        <v>8.24E-16</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -6590,8 +7289,11 @@
       <c r="H12">
         <v>2.04E-13</v>
       </c>
-    </row>
-    <row r="13" spans="1:8">
+      <c r="I12">
+        <v>9.929999999999999E-17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -6616,8 +7318,11 @@
       <c r="H13">
         <v>4.12E-09</v>
       </c>
-    </row>
-    <row r="14" spans="1:8">
+      <c r="I13">
+        <v>3.24E-12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -6641,6 +7346,9 @@
       </c>
       <c r="H14">
         <v>4.74E-07</v>
+      </c>
+      <c r="I14">
+        <v>2.57E-10</v>
       </c>
     </row>
   </sheetData>

--- a/results/feedstock_lcia.xlsx
+++ b/results/feedstock_lcia.xlsx
@@ -114,7 +114,7 @@
     <t>Heat-HTC</t>
   </si>
   <si>
-    <t>'Carbon dioxide, non-fossil, resource correction' (kilogram, None, ('natural resource', 'in air'))</t>
+    <t>'Carbon dioxide, non-fossil, resource correction' (kg, None, None)</t>
   </si>
   <si>
     <t>CO2 - HTC</t>
